--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H2">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.26166080606577</v>
+        <v>9.269799333333333</v>
       </c>
       <c r="N2">
-        <v>9.26166080606577</v>
+        <v>27.809398</v>
       </c>
       <c r="O2">
-        <v>0.1674072397996707</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="P2">
-        <v>0.1674072397996707</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="Q2">
-        <v>49.63478847046433</v>
+        <v>103.1058830100173</v>
       </c>
       <c r="R2">
-        <v>49.63478847046433</v>
+        <v>927.952947090156</v>
       </c>
       <c r="S2">
-        <v>0.02284528706507098</v>
+        <v>0.03989136803908745</v>
       </c>
       <c r="T2">
-        <v>0.02284528706507098</v>
+        <v>0.03989136803908745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H3">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.6145251967764</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N3">
-        <v>37.6145251967764</v>
+        <v>113.146496</v>
       </c>
       <c r="O3">
-        <v>0.6798935926743749</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="P3">
-        <v>0.6798935926743749</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="Q3">
-        <v>201.5825283016405</v>
+        <v>419.5009679666346</v>
       </c>
       <c r="R3">
-        <v>201.5825283016405</v>
+        <v>3775.508711699712</v>
       </c>
       <c r="S3">
-        <v>0.09278191502909594</v>
+        <v>0.162303711654209</v>
       </c>
       <c r="T3">
-        <v>0.09278191502909594</v>
+        <v>0.162303711654209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H4">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>8.44794942373087</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N4">
-        <v>8.44794942373087</v>
+        <v>0.149489</v>
       </c>
       <c r="O4">
-        <v>0.1526991675259545</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="P4">
-        <v>0.1526991675259545</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="Q4">
-        <v>45.27397314976611</v>
+        <v>0.5542441208286667</v>
       </c>
       <c r="R4">
-        <v>45.27397314976611</v>
+        <v>4.988197087458</v>
       </c>
       <c r="S4">
-        <v>0.02083814487893287</v>
+        <v>0.0002144354479300539</v>
       </c>
       <c r="T4">
-        <v>0.02083814487893287</v>
+        <v>0.0002144354479300539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.2139076492193</v>
+        <v>11.122774</v>
       </c>
       <c r="H5">
-        <v>18.2139076492193</v>
+        <v>33.368322</v>
       </c>
       <c r="I5">
-        <v>0.4637972937398354</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J5">
-        <v>0.4637972937398354</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.26166080606577</v>
+        <v>9.888937</v>
       </c>
       <c r="N5">
-        <v>9.26166080606577</v>
+        <v>29.666811</v>
       </c>
       <c r="O5">
-        <v>0.1674072397996707</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="P5">
-        <v>0.1674072397996707</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="Q5">
-        <v>168.6910346000759</v>
+        <v>109.992411351238</v>
       </c>
       <c r="R5">
-        <v>168.6910346000759</v>
+        <v>989.9317021611421</v>
       </c>
       <c r="S5">
-        <v>0.07764302477154295</v>
+        <v>0.04255574594412465</v>
       </c>
       <c r="T5">
-        <v>0.07764302477154295</v>
+        <v>0.04255574594412465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H6">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.6145251967764</v>
+        <v>9.269799333333333</v>
       </c>
       <c r="N6">
-        <v>37.6145251967764</v>
+        <v>27.809398</v>
       </c>
       <c r="O6">
-        <v>0.6798935926743749</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="P6">
-        <v>0.6798935926743749</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="Q6">
-        <v>685.1074882033178</v>
+        <v>168.9023624900573</v>
       </c>
       <c r="R6">
-        <v>685.1074882033178</v>
+        <v>1520.121262410516</v>
       </c>
       <c r="S6">
-        <v>0.3153328083134291</v>
+        <v>0.06534783572056335</v>
       </c>
       <c r="T6">
-        <v>0.3153328083134291</v>
+        <v>0.06534783572056337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H7">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.44794942373087</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N7">
-        <v>8.44794942373087</v>
+        <v>113.146496</v>
       </c>
       <c r="O7">
-        <v>0.1526991675259545</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="P7">
-        <v>0.1526991675259545</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="Q7">
-        <v>153.8701706291095</v>
+        <v>687.2033145727146</v>
       </c>
       <c r="R7">
-        <v>153.8701706291095</v>
+        <v>6184.829831154431</v>
       </c>
       <c r="S7">
-        <v>0.07082146065486346</v>
+        <v>0.2658769755808945</v>
       </c>
       <c r="T7">
-        <v>0.07082146065486346</v>
+        <v>0.2658769755808946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0896798937788435</v>
+        <v>18.220714</v>
       </c>
       <c r="H8">
-        <v>0.0896798937788435</v>
+        <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J8">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>9.26166080606577</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N8">
-        <v>9.26166080606577</v>
+        <v>0.149489</v>
       </c>
       <c r="O8">
-        <v>0.1674072397996707</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="P8">
-        <v>0.1674072397996707</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="Q8">
-        <v>0.8305847573036563</v>
+        <v>0.9079321050486667</v>
       </c>
       <c r="R8">
-        <v>0.8305847573036563</v>
+        <v>8.171388945438</v>
       </c>
       <c r="S8">
-        <v>0.0003822912879696379</v>
+        <v>0.0003512763064497582</v>
       </c>
       <c r="T8">
-        <v>0.0003822912879696379</v>
+        <v>0.0003512763064497583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0896798937788435</v>
+        <v>18.220714</v>
       </c>
       <c r="H9">
-        <v>0.0896798937788435</v>
+        <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J9">
-        <v>0.00228360068792192</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.6145251967764</v>
+        <v>9.888937</v>
       </c>
       <c r="N9">
-        <v>37.6145251967764</v>
+        <v>29.666811</v>
       </c>
       <c r="O9">
-        <v>0.6798935926743749</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="P9">
-        <v>0.6798935926743749</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="Q9">
-        <v>3.37326662418854</v>
+        <v>180.183492841018</v>
       </c>
       <c r="R9">
-        <v>3.37326662418854</v>
+        <v>1621.651435569162</v>
       </c>
       <c r="S9">
-        <v>0.001552605475944908</v>
+        <v>0.06971247243759111</v>
       </c>
       <c r="T9">
-        <v>0.001552605475944908</v>
+        <v>0.06971247243759114</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H10">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.44794942373087</v>
+        <v>9.269799333333333</v>
       </c>
       <c r="N10">
-        <v>8.44794942373087</v>
+        <v>27.809398</v>
       </c>
       <c r="O10">
-        <v>0.1526991675259545</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="P10">
-        <v>0.1526991675259545</v>
+        <v>0.1628450003986012</v>
       </c>
       <c r="Q10">
-        <v>0.7576112069692266</v>
+        <v>1.103093760934222</v>
       </c>
       <c r="R10">
-        <v>0.7576112069692266</v>
+        <v>9.927843848407999</v>
       </c>
       <c r="S10">
-        <v>0.0003487039240073742</v>
+        <v>0.0004267837868647415</v>
       </c>
       <c r="T10">
-        <v>0.0003487039240073742</v>
+        <v>0.0004267837868647415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.6085129250898</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H11">
-        <v>15.6085129250898</v>
+        <v>0.356996</v>
       </c>
       <c r="I11">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J11">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.26166080606577</v>
+        <v>37.71549866666666</v>
       </c>
       <c r="N11">
-        <v>9.26166080606577</v>
+        <v>113.146496</v>
       </c>
       <c r="O11">
-        <v>0.1674072397996707</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="P11">
-        <v>0.1674072397996707</v>
+        <v>0.6625580742963342</v>
       </c>
       <c r="Q11">
-        <v>144.5607523992752</v>
+        <v>4.488094054001777</v>
       </c>
       <c r="R11">
-        <v>144.5607523992752</v>
+        <v>40.39284648601599</v>
       </c>
       <c r="S11">
-        <v>0.06653663667508715</v>
+        <v>0.001736430613613294</v>
       </c>
       <c r="T11">
-        <v>0.06653663667508715</v>
+        <v>0.001736430613613294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.6085129250898</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H12">
-        <v>15.6085129250898</v>
+        <v>0.356996</v>
       </c>
       <c r="I12">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J12">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>37.6145251967764</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N12">
-        <v>37.6145251967764</v>
+        <v>0.149489</v>
       </c>
       <c r="O12">
-        <v>0.6798935926743749</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="P12">
-        <v>0.6798935926743749</v>
+        <v>0.0008753708463802955</v>
       </c>
       <c r="Q12">
-        <v>587.1068027050004</v>
+        <v>0.005929663893777777</v>
       </c>
       <c r="R12">
-        <v>587.1068027050004</v>
+        <v>0.053366975044</v>
       </c>
       <c r="S12">
-        <v>0.270226263855905</v>
+        <v>2.294169816787236E-06</v>
       </c>
       <c r="T12">
-        <v>0.270226263855905</v>
+        <v>2.294169816787236E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.6085129250898</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H13">
-        <v>15.6085129250898</v>
+        <v>0.356996</v>
       </c>
       <c r="I13">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J13">
-        <v>0.3974537585991429</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.44794942373087</v>
+        <v>9.888937</v>
       </c>
       <c r="N13">
-        <v>8.44794942373087</v>
+        <v>29.666811</v>
       </c>
       <c r="O13">
-        <v>0.1526991675259545</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="P13">
-        <v>0.1526991675259545</v>
+        <v>0.1737215544586843</v>
       </c>
       <c r="Q13">
-        <v>131.8599277708082</v>
+        <v>1.176770317750667</v>
       </c>
       <c r="R13">
-        <v>131.8599277708082</v>
+        <v>10.590932859756</v>
       </c>
       <c r="S13">
-        <v>0.0606908580681508</v>
+        <v>0.0004552890336849638</v>
       </c>
       <c r="T13">
-        <v>0.0606908580681508</v>
+        <v>0.0004552890336849639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>15.943029</v>
+      </c>
+      <c r="H14">
+        <v>47.829087</v>
+      </c>
+      <c r="I14">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J14">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.269799333333333</v>
+      </c>
+      <c r="N14">
+        <v>27.809398</v>
+      </c>
+      <c r="O14">
+        <v>0.1628450003986012</v>
+      </c>
+      <c r="P14">
+        <v>0.1628450003986012</v>
+      </c>
+      <c r="Q14">
+        <v>147.788679595514</v>
+      </c>
+      <c r="R14">
+        <v>1330.098116359626</v>
+      </c>
+      <c r="S14">
+        <v>0.05717901285208568</v>
+      </c>
+      <c r="T14">
+        <v>0.05717901285208568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>15.943029</v>
+      </c>
+      <c r="H15">
+        <v>47.829087</v>
+      </c>
+      <c r="I15">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J15">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>37.71549866666666</v>
+      </c>
+      <c r="N15">
+        <v>113.146496</v>
+      </c>
+      <c r="O15">
+        <v>0.6625580742963342</v>
+      </c>
+      <c r="P15">
+        <v>0.6625580742963342</v>
+      </c>
+      <c r="Q15">
+        <v>601.2992889921279</v>
+      </c>
+      <c r="R15">
+        <v>5411.693600929151</v>
+      </c>
+      <c r="S15">
+        <v>0.2326409564476174</v>
+      </c>
+      <c r="T15">
+        <v>0.2326409564476174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>15.943029</v>
+      </c>
+      <c r="H16">
+        <v>47.829087</v>
+      </c>
+      <c r="I16">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J16">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04982966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.149489</v>
+      </c>
+      <c r="O16">
+        <v>0.0008753708463802955</v>
+      </c>
+      <c r="P16">
+        <v>0.0008753708463802955</v>
+      </c>
+      <c r="Q16">
+        <v>0.794435820727</v>
+      </c>
+      <c r="R16">
+        <v>7.149922386543</v>
+      </c>
+      <c r="S16">
+        <v>0.0003073649221836962</v>
+      </c>
+      <c r="T16">
+        <v>0.0003073649221836962</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15.943029</v>
+      </c>
+      <c r="H17">
+        <v>47.829087</v>
+      </c>
+      <c r="I17">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="J17">
+        <v>0.3511253812651704</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.888937</v>
+      </c>
+      <c r="N17">
+        <v>29.666811</v>
+      </c>
+      <c r="O17">
+        <v>0.1737215544586843</v>
+      </c>
+      <c r="P17">
+        <v>0.1737215544586843</v>
+      </c>
+      <c r="Q17">
+        <v>157.659609370173</v>
+      </c>
+      <c r="R17">
+        <v>1418.936484331557</v>
+      </c>
+      <c r="S17">
+        <v>0.06099804704328359</v>
+      </c>
+      <c r="T17">
+        <v>0.0609980470432836</v>
       </c>
     </row>
   </sheetData>
